--- a/src/utils/sxsyzlzq/shijiesai/第4次_4强表格.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/第4次_4强表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="3"/>
+    <workbookView windowWidth="13320" windowHeight="12795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="四强英雄出场率" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t>英雄</t>
   </si>
@@ -989,14 +989,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1322,10 +1319,10 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="12.8181818181818"/>
+    <col min="1" max="1" width="18.3666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.8166666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1983,12 +1980,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="12.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="13.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="13.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="12.9083333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2211,10 +2208,10 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.63636363636364" customWidth="1"/>
-    <col min="5" max="5" width="12.8181818181818"/>
+    <col min="1" max="1" width="9.63333333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.8166666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2779,17 +2776,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="9.81818181818182" customWidth="1"/>
-    <col min="6" max="6" width="12.8181818181818"/>
+    <col min="1" max="1" width="19.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="9.81666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.8166666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2814,651 +2811,594 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
-        <f>SUM(C2,D2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="e">
-        <f>C2/E2</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="E2:E27" si="0">SUM(C2,D2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F27" si="1">C2/E2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
-        <f>SUM(C3,D3)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="e">
-        <f>C3/E3</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4">
-        <f>SUM(C4,D4)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="e">
-        <f>C4/E4</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
-        <f>SUM(C5,D5)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
-        <f>C5/E5</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.647058823529412</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <f>SUM(C6,D6)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
-        <f>C6/E6</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.636363636363636</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f>SUM(C7,D7)</f>
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.608695652173913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.583333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="F7" s="1">
-        <f>C7/E7</f>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <f>SUM(C8,D8)</f>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F8" s="1">
-        <f>C8/E8</f>
-        <v>0.647058823529412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <f>SUM(C9,D9)</f>
-        <v>11</v>
-      </c>
-      <c r="F9" s="1">
-        <f>C9/E9</f>
-        <v>0.636363636363636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="3">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3">
-        <f>SUM(C10,D10)</f>
-        <v>32</v>
-      </c>
-      <c r="F10" s="4">
-        <f>C10/E10</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="3">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3">
-        <f>SUM(C11,D11)</f>
-        <v>23</v>
-      </c>
-      <c r="F11" s="4">
-        <f>C11/E11</f>
-        <v>0.608695652173913</v>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.529411764705882</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(C12,D12)</f>
-        <v>48</v>
-      </c>
-      <c r="F12" s="4">
-        <f>C12/E12</f>
-        <v>0.583333333333333</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.521739130434783</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <f>SUM(C13,D13)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
-        <f>C13/E13</f>
-        <v>0.571428571428571</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <f>SUM(C14,D14)</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="F14" s="1">
-        <f>C14/E14</f>
-        <v>0.529411764705882</v>
+        <f t="shared" si="1"/>
+        <v>0.454545454545455</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
         <v>11</v>
       </c>
-      <c r="E15" s="3">
-        <f>SUM(C15,D15)</f>
-        <v>23</v>
-      </c>
-      <c r="F15" s="4">
-        <f>C15/E15</f>
-        <v>0.521739130434783</v>
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.416666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
         <v>7</v>
       </c>
-      <c r="E16">
-        <f>SUM(C16,D16)</f>
-        <v>14</v>
-      </c>
-      <c r="F16" s="1">
-        <f>C16/E16</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <f>SUM(C17,D17)</f>
+      <c r="D18">
         <v>11</v>
       </c>
-      <c r="F17" s="1">
-        <f>C17/E17</f>
-        <v>0.454545454545455</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3">
-        <f>SUM(C18,D18)</f>
-        <v>25</v>
-      </c>
-      <c r="F18" s="4">
-        <f>C18/E18</f>
-        <v>0.44</v>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.388888888888889</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <f>SUM(C19,D19)</f>
-        <v>7</v>
-      </c>
-      <c r="F19" s="1">
-        <f>C19/E19</f>
-        <v>0.428571428571429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3">
-        <v>14</v>
-      </c>
-      <c r="E20" s="3">
-        <f>SUM(C20,D20)</f>
-        <v>24</v>
-      </c>
-      <c r="F20" s="4">
-        <f>C20/E20</f>
-        <v>0.416666666666667</v>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <f>SUM(C21,D21)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="F21" s="1">
-        <f>C21/E21</f>
-        <v>0.388888888888889</v>
+        <f t="shared" si="1"/>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <f>SUM(C22,D22)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
-        <f>C22/E22</f>
+        <f t="shared" si="1"/>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <f>SUM(C23,D23)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="F23" s="1">
-        <f>C23/E23</f>
-        <v>0.333333333333333</v>
+        <f t="shared" si="1"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <f>SUM(C24,D24)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F24" s="1">
-        <f>C24/E24</f>
-        <v>0.333333333333333</v>
+        <f t="shared" si="1"/>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <f>SUM(C25,D25)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F25" s="1">
-        <f>C25/E25</f>
-        <v>0.333333333333333</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26">
-        <f>SUM(C26,D26)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="F26" s="1">
-        <f>C26/E26</f>
-        <v>0.25</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <f>SUM(C27,D27)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="F27" s="1">
-        <f>C27/E27</f>
-        <v>0.142857142857143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <f>SUM(C28,D28)</f>
-        <v>3</v>
-      </c>
-      <c r="F28" s="1">
-        <f>C28/E28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <f>SUM(C29,D29)</f>
-        <v>3</v>
-      </c>
-      <c r="F29" s="1">
-        <f>C29/E29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" t="s">
-        <v>111</v>
-      </c>
+    </row>
+    <row r="30" spans="3:10">
       <c r="C30">
-        <v>0</v>
+        <f>SUM(C2:C27)</f>
+        <v>161</v>
       </c>
       <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <f>SUM(C30,D30)</f>
-        <v>2</v>
-      </c>
-      <c r="F30" s="1">
-        <f>C30/E30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10">
-      <c r="C33">
-        <f>SUM(C2:C30)</f>
+        <f>SUM(D2:D27)</f>
         <v>161</v>
       </c>
-      <c r="D33">
-        <f>SUM(D2:D30)</f>
-        <v>161</v>
-      </c>
-      <c r="H33">
-        <f>SUM(C33:D33)</f>
+      <c r="H30">
+        <f>SUM(C30:D30)</f>
         <v>322</v>
       </c>
-      <c r="J33">
+      <c r="J30">
         <v>322</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F30">
-    <sortCondition ref="F2" descending="1"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/utils/sxsyzlzq/shijiesai/第4次_4强表格.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/第4次_4强表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13320" windowHeight="12795" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="四强英雄出场率" sheetId="1" r:id="rId1"/>
@@ -2779,7 +2779,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
